--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3437665.942671823</v>
+        <v>-3438344.123979356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.197018321</v>
+        <v>311885.1970183193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058554</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="E11" t="n">
-        <v>122.7111663740562</v>
+        <v>0.4269790130903743</v>
       </c>
       <c r="F11" t="n">
-        <v>75.02161393775015</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037787</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>33.06238140451853</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428242</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.241483172793115</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
         <v>20.73635203332428</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394765</v>
+        <v>122.711166374057</v>
       </c>
       <c r="V12" t="n">
-        <v>46.43735102801259</v>
+        <v>122.711166374057</v>
       </c>
       <c r="W12" t="n">
         <v>72.49301368962193</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208095</v>
+        <v>108.3930797467442</v>
       </c>
       <c r="Y12" t="n">
         <v>29.17271624663596</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="G14" t="n">
-        <v>122.7111663740562</v>
+        <v>61.69698309189143</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.38701225037789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>108.0839953422687</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="T15" t="n">
-        <v>28.03627691442961</v>
+        <v>20.73635203332431</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394765</v>
+        <v>43.01612417394768</v>
       </c>
       <c r="V15" t="n">
-        <v>122.7111663740562</v>
+        <v>65.37695557279643</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962193</v>
+        <v>72.49301368962196</v>
       </c>
       <c r="X15" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663596</v>
+        <v>29.17271624663599</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278813</v>
+        <v>9.003274493278841</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393263</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521121</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269442</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706027</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194569</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085287</v>
+        <v>27.7078855208529</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677876</v>
+        <v>22.92970292677879</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924034</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55915463258583</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363429</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304317</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142049</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G17" t="n">
-        <v>98.18116457427323</v>
+        <v>98.18116457427337</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653672</v>
+        <v>26.26582637653702</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605590284</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W17" t="n">
-        <v>17.2501210771739</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611314</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.6392246698569</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="18">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="C18" t="n">
-        <v>50.006964650579</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>108.0839953422694</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924034</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258583</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363429</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304317</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142049</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427323</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653672</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605590284</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W20" t="n">
-        <v>17.2501210771738</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611314</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.6392246698569</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>117.4872185223617</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>6.141010788491254</v>
       </c>
       <c r="R21" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="X21" t="n">
-        <v>50.006964650579</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924034</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258583</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363429</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304317</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142049</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427323</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653674</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605590284</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W23" t="n">
-        <v>17.2501210771739</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611314</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.6392246698569</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.7111663740562</v>
+        <v>101.9429845537782</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>50.006964650579</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="Y24" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>138.352864435011</v>
+        <v>31.7255387295779</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>2.027337854431311</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505468</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911961</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>53.78399951072896</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1666563115507</v>
+        <v>161.1666563115506</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2849133148962</v>
+        <v>137.2849133148961</v>
       </c>
       <c r="D29" t="n">
-        <v>124.8515755759447</v>
+        <v>124.8515755759446</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953534</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9069232565836</v>
+        <v>205.9069232565835</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9915850588471</v>
+        <v>133.991585058847</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148493</v>
+        <v>27.67799807148481</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35336722562559</v>
+        <v>14.35336722562548</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389476</v>
+        <v>9.498608495389362</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518457</v>
+        <v>37.22910417518446</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9591995428694</v>
+        <v>107.9591995428693</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9758797594843</v>
+        <v>124.9758797594842</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8621302284235</v>
+        <v>146.8621302284234</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3649833521673</v>
+        <v>169.3649833521672</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>23.5848242327896</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>49.65259400731554</v>
       </c>
       <c r="T30" t="n">
-        <v>214.947921920714</v>
+        <v>2.027337854431225</v>
       </c>
       <c r="U30" t="n">
-        <v>24.30710999505471</v>
+        <v>24.3071099950546</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911964</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78399951072899</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.392330373188003</v>
+        <v>4.392330373187889</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46370206774301</v>
+        <v>10.4637020677429</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503966</v>
+        <v>22.43408406503955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631824</v>
+        <v>10.82053263631812</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380145</v>
+        <v>75.73571194380133</v>
       </c>
       <c r="V31" t="n">
-        <v>32.1884311181673</v>
+        <v>32.18843111816719</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305272</v>
+        <v>77.39012302305261</v>
       </c>
       <c r="X31" t="n">
-        <v>8.998871341959926</v>
+        <v>8.998871341959813</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.220688747885816</v>
+        <v>4.220688747885703</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148489</v>
+        <v>27.6779980714849</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>6.141010788491254</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.85022898939855</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
         <v>2.027337854431311</v>
       </c>
       <c r="U33" t="n">
-        <v>226.6421323338071</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X33" t="n">
         <v>4.392330373187974</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46370206774299</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.7760295888893</v>
+        <v>125.776029588889</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922348</v>
+        <v>101.8942865922345</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328327</v>
+        <v>89.46094885328296</v>
       </c>
       <c r="E35" t="n">
-        <v>123.1677012726921</v>
+        <v>123.1677012726918</v>
       </c>
       <c r="F35" t="n">
-        <v>154.8880388510695</v>
+        <v>154.8880388510692</v>
       </c>
       <c r="G35" t="n">
-        <v>170.5162965339222</v>
+        <v>170.5162965339219</v>
       </c>
       <c r="H35" t="n">
-        <v>98.6009583361857</v>
+        <v>98.60095833618539</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452523165</v>
+        <v>1.838477452522838</v>
       </c>
       <c r="V35" t="n">
-        <v>72.568572820208</v>
+        <v>72.56857282020769</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682288</v>
+        <v>89.58525303682256</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057621</v>
+        <v>111.4715035057618</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.9743566295059</v>
+        <v>133.9743566295056</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>108.8096437179139</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>133.4313121504211</v>
+        <v>18.39337278806727</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522114003</v>
+        <v>40.34508522113972</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039131</v>
+        <v>41.999496300391</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.7760295888893</v>
+        <v>125.776029588889</v>
       </c>
       <c r="C38" t="n">
-        <v>101.8942865922348</v>
+        <v>101.8942865922345</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328327</v>
+        <v>89.46094885328296</v>
       </c>
       <c r="E38" t="n">
-        <v>123.1677012726921</v>
+        <v>123.1677012726918</v>
       </c>
       <c r="F38" t="n">
-        <v>154.8880388510695</v>
+        <v>154.8880388510692</v>
       </c>
       <c r="G38" t="n">
-        <v>170.5162965339222</v>
+        <v>170.5162965339219</v>
       </c>
       <c r="H38" t="n">
-        <v>98.6009583361857</v>
+        <v>98.60095833618539</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452523165</v>
+        <v>1.838477452522838</v>
       </c>
       <c r="V38" t="n">
-        <v>72.568572820208</v>
+        <v>72.56857282020769</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682288</v>
+        <v>89.58525303682256</v>
       </c>
       <c r="X38" t="n">
-        <v>111.4715035057621</v>
+        <v>111.4715035057618</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.9743566295059</v>
+        <v>133.9743566295056</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3624,25 +3624,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.141010788491254</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.46023248335436</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
-        <v>90.11101470743526</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>18.39337278806727</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522114003</v>
+        <v>40.34508522113972</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039131</v>
+        <v>41.999496300391</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.6069152434113</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17357750445976</v>
+        <v>97.17357750445973</v>
       </c>
       <c r="E41" t="n">
         <v>130.8803299238686</v>
       </c>
       <c r="F41" t="n">
-        <v>162.600667502246</v>
+        <v>162.6006675022459</v>
       </c>
       <c r="G41" t="n">
         <v>178.2289251850987</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699652</v>
+        <v>9.55110610369961</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28120147138449</v>
+        <v>80.28120147138446</v>
       </c>
       <c r="W41" t="n">
-        <v>97.29788168799936</v>
+        <v>97.29788168799934</v>
       </c>
       <c r="X41" t="n">
         <v>119.1841321569386</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.6869852806824</v>
+        <v>141.6869852806823</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>77.69136949686941</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.141010788491254</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>90.11101470743515</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.05771387231652</v>
+        <v>48.05771387231649</v>
       </c>
       <c r="V43" t="n">
-        <v>4.51043304668238</v>
+        <v>4.510433046682351</v>
       </c>
       <c r="W43" t="n">
-        <v>49.7121249515678</v>
+        <v>49.71212495156777</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.6069152434113</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17357750445976</v>
+        <v>97.17357750445973</v>
       </c>
       <c r="E44" t="n">
         <v>130.8803299238686</v>
       </c>
       <c r="F44" t="n">
-        <v>162.600667502246</v>
+        <v>162.6006675022459</v>
       </c>
       <c r="G44" t="n">
         <v>178.2289251850987</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699652</v>
+        <v>9.55110610369961</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138449</v>
+        <v>80.28120147138446</v>
       </c>
       <c r="W44" t="n">
-        <v>97.29788168799936</v>
+        <v>97.29788168799934</v>
       </c>
       <c r="X44" t="n">
         <v>119.1841321569386</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.6869852806824</v>
+        <v>141.6869852806823</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>134.5478183800052</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>43.47722297107526</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>26.10600143924404</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231652</v>
+        <v>48.05771387231649</v>
       </c>
       <c r="V46" t="n">
-        <v>4.51043304668238</v>
+        <v>4.510433046682351</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7121249515678</v>
+        <v>49.71212495156777</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.4976475380685</v>
+        <v>428.9557724873382</v>
       </c>
       <c r="C11" t="n">
-        <v>333.4976475380685</v>
+        <v>305.0050993822301</v>
       </c>
       <c r="D11" t="n">
-        <v>333.4976475380685</v>
+        <v>181.054426277122</v>
       </c>
       <c r="E11" t="n">
-        <v>209.5469744329612</v>
+        <v>180.6231343447074</v>
       </c>
       <c r="F11" t="n">
-        <v>133.7675664150318</v>
+        <v>180.6231343447074</v>
       </c>
       <c r="G11" t="n">
-        <v>133.7675664150318</v>
+        <v>180.6231343447074</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816893309924497</v>
+        <v>56.67246123959934</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J11" t="n">
-        <v>20.45076787525764</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K11" t="n">
-        <v>20.45076787525764</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="L11" t="n">
-        <v>68.83789712646927</v>
+        <v>104.8376017308667</v>
       </c>
       <c r="M11" t="n">
-        <v>151.5538613046324</v>
+        <v>187.5535659090298</v>
       </c>
       <c r="N11" t="n">
-        <v>228.7658202430818</v>
+        <v>264.7655248474792</v>
       </c>
       <c r="O11" t="n">
-        <v>264.7655248474769</v>
+        <v>386.2495795577957</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2495795577926</v>
+        <v>386.2495795577957</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="S11" t="n">
-        <v>457.4483206431758</v>
+        <v>457.448320643179</v>
       </c>
       <c r="T11" t="n">
-        <v>457.4483206431758</v>
+        <v>428.9557724873382</v>
       </c>
       <c r="U11" t="n">
-        <v>457.4483206431758</v>
+        <v>428.9557724873382</v>
       </c>
       <c r="V11" t="n">
-        <v>457.4483206431758</v>
+        <v>428.9557724873382</v>
       </c>
       <c r="W11" t="n">
-        <v>457.4483206431758</v>
+        <v>428.9557724873382</v>
       </c>
       <c r="X11" t="n">
-        <v>457.4483206431758</v>
+        <v>428.9557724873382</v>
       </c>
       <c r="Y11" t="n">
-        <v>333.4976475380685</v>
+        <v>428.9557724873382</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>247.311420534493</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="C12" t="n">
-        <v>247.311420534493</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="D12" t="n">
-        <v>247.311420534493</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="E12" t="n">
-        <v>247.311420534493</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="F12" t="n">
-        <v>123.3607474293857</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="G12" t="n">
-        <v>123.3607474293857</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="H12" t="n">
-        <v>123.3607474293857</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="I12" t="n">
-        <v>15.11132075719027</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K12" t="n">
-        <v>48.69249843149183</v>
+        <v>48.69249843149189</v>
       </c>
       <c r="L12" t="n">
         <v>167.2520893996963</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8765560755936</v>
+        <v>288.7361441100128</v>
       </c>
       <c r="N12" t="n">
-        <v>369.3606107859092</v>
+        <v>406.140735177982</v>
       </c>
       <c r="O12" t="n">
-        <v>490.8446654962249</v>
+        <v>406.140735177982</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.6416242957287</v>
+        <v>490.844665496228</v>
       </c>
       <c r="R12" t="n">
-        <v>484.6416242957287</v>
+        <v>490.844665496228</v>
       </c>
       <c r="S12" t="n">
-        <v>484.6416242957287</v>
+        <v>490.844665496228</v>
       </c>
       <c r="T12" t="n">
-        <v>463.6958141610577</v>
+        <v>469.898855361557</v>
       </c>
       <c r="U12" t="n">
-        <v>420.2451836823227</v>
+        <v>345.9481822564489</v>
       </c>
       <c r="V12" t="n">
-        <v>373.338768502512</v>
+        <v>221.9975091513409</v>
       </c>
       <c r="W12" t="n">
-        <v>300.1135021493586</v>
+        <v>148.7722427981874</v>
       </c>
       <c r="X12" t="n">
-        <v>276.7788106826101</v>
+        <v>39.28428345804169</v>
       </c>
       <c r="Y12" t="n">
-        <v>247.311420534493</v>
+        <v>9.816893309924561</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="F13" t="n">
-        <v>9.816893309924497</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="G13" t="n">
-        <v>9.816893309924497</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="H13" t="n">
-        <v>9.816893309924497</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="I13" t="n">
-        <v>9.816893309924497</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="J13" t="n">
-        <v>83.38399921969011</v>
+        <v>138.1158400119438</v>
       </c>
       <c r="K13" t="n">
-        <v>83.38399921969011</v>
+        <v>259.5998947222602</v>
       </c>
       <c r="L13" t="n">
-        <v>83.38399921969011</v>
+        <v>381.0839494325766</v>
       </c>
       <c r="M13" t="n">
-        <v>197.1215076800439</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="N13" t="n">
-        <v>318.6055623903595</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="O13" t="n">
-        <v>318.6055623903595</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903595</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894745</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="R13" t="n">
-        <v>376.2325924295969</v>
+        <v>376.232592429597</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347155</v>
+        <v>334.6739073347156</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688456</v>
+        <v>304.8460822688457</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135988</v>
+        <v>209.4473690135989</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074773</v>
+        <v>158.0358081074774</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995645</v>
+        <v>60.96597254995651</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757981</v>
+        <v>32.97820939757987</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.7675664150318</v>
+        <v>366.8939923911199</v>
       </c>
       <c r="C14" t="n">
-        <v>133.7675664150318</v>
+        <v>366.8939923911199</v>
       </c>
       <c r="D14" t="n">
-        <v>133.7675664150318</v>
+        <v>366.8939923911199</v>
       </c>
       <c r="E14" t="n">
-        <v>133.7675664150318</v>
+        <v>366.8939923911199</v>
       </c>
       <c r="F14" t="n">
-        <v>133.7675664150318</v>
+        <v>242.9433192860118</v>
       </c>
       <c r="G14" t="n">
-        <v>9.816893309924497</v>
+        <v>180.6231343447073</v>
       </c>
       <c r="H14" t="n">
-        <v>9.816893309924497</v>
+        <v>56.67246123959923</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J14" t="n">
-        <v>126.9687252395235</v>
+        <v>86.27776328153897</v>
       </c>
       <c r="K14" t="n">
-        <v>126.9687252395235</v>
+        <v>86.27776328153897</v>
       </c>
       <c r="L14" t="n">
-        <v>175.3558544907351</v>
+        <v>134.6648925327506</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0718186688982</v>
+        <v>256.148947243067</v>
       </c>
       <c r="N14" t="n">
-        <v>335.2837776073477</v>
+        <v>333.3609061815165</v>
       </c>
       <c r="O14" t="n">
-        <v>371.2834822117428</v>
+        <v>369.3606107859116</v>
       </c>
       <c r="P14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="S14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="T14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="U14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="V14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="W14" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="X14" t="n">
-        <v>381.6689126252464</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.7182395201391</v>
+        <v>366.8939923911199</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="C15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="D15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="E15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="F15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="G15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="H15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="I15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K15" t="n">
-        <v>9.816893309924497</v>
+        <v>41.68857104703267</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3764842781289</v>
+        <v>41.68857104703267</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8765560755936</v>
+        <v>163.1726257573491</v>
       </c>
       <c r="N15" t="n">
-        <v>369.3606107859092</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="O15" t="n">
-        <v>490.8446654962249</v>
+        <v>406.140735177982</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.6416242957287</v>
+        <v>490.844665496228</v>
       </c>
       <c r="R15" t="n">
-        <v>484.6416242957287</v>
+        <v>490.844665496228</v>
       </c>
       <c r="S15" t="n">
-        <v>484.6416242957287</v>
+        <v>366.8939923911199</v>
       </c>
       <c r="T15" t="n">
-        <v>456.3221526649917</v>
+        <v>345.9481822564489</v>
       </c>
       <c r="U15" t="n">
-        <v>412.8715221862566</v>
+        <v>302.4975517777139</v>
       </c>
       <c r="V15" t="n">
-        <v>288.9208490811494</v>
+        <v>236.4602229163033</v>
       </c>
       <c r="W15" t="n">
-        <v>215.6955827279959</v>
+        <v>163.2349565631498</v>
       </c>
       <c r="X15" t="n">
-        <v>91.74490962288857</v>
+        <v>39.28428345804172</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="D16" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="E16" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="F16" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="G16" t="n">
-        <v>9.816893309924497</v>
+        <v>35.07731671699966</v>
       </c>
       <c r="H16" t="n">
-        <v>9.816893309924497</v>
+        <v>35.07731671699966</v>
       </c>
       <c r="I16" t="n">
-        <v>9.816893309924497</v>
+        <v>64.28476887663487</v>
       </c>
       <c r="J16" t="n">
-        <v>83.38399921969011</v>
+        <v>137.8518747864005</v>
       </c>
       <c r="K16" t="n">
-        <v>204.8680539300058</v>
+        <v>137.8518747864005</v>
       </c>
       <c r="L16" t="n">
-        <v>263.8427543791589</v>
+        <v>259.3359294967169</v>
       </c>
       <c r="M16" t="n">
-        <v>263.8427543791589</v>
+        <v>259.3359294967169</v>
       </c>
       <c r="N16" t="n">
-        <v>385.3268090894745</v>
+        <v>380.8199842070333</v>
       </c>
       <c r="O16" t="n">
-        <v>385.3268090894745</v>
+        <v>380.8199842070333</v>
       </c>
       <c r="P16" t="n">
-        <v>385.3268090894745</v>
+        <v>385.3268090894749</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894745</v>
+        <v>385.3268090894749</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295969</v>
+        <v>376.2325924295972</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347155</v>
+        <v>334.6739073347158</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688456</v>
+        <v>304.8460822688459</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135988</v>
+        <v>209.447369013599</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074773</v>
+        <v>158.0358081074775</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995645</v>
+        <v>60.96597254995657</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757981</v>
+        <v>32.9782093975799</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154736</v>
+        <v>317.4102657154757</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633666</v>
+        <v>287.5525337633685</v>
       </c>
       <c r="D17" t="n">
-        <v>270.253728820302</v>
+        <v>270.2537288203032</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111675</v>
+        <v>218.9076992111684</v>
       </c>
       <c r="F17" t="n">
-        <v>135.520924573369</v>
+        <v>135.5209245733696</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400199</v>
+        <v>36.34803106400236</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="I17" t="n">
-        <v>56.84636229683591</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J17" t="n">
-        <v>56.84636229683591</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K17" t="n">
-        <v>56.84636229683591</v>
+        <v>131.300948020241</v>
       </c>
       <c r="L17" t="n">
-        <v>105.2334915480475</v>
+        <v>179.6880772714526</v>
       </c>
       <c r="M17" t="n">
-        <v>187.9494557262107</v>
+        <v>301.172131981769</v>
       </c>
       <c r="N17" t="n">
-        <v>265.1614146646601</v>
+        <v>422.6561866920855</v>
       </c>
       <c r="O17" t="n">
-        <v>301.1611192690552</v>
+        <v>490.844665496228</v>
       </c>
       <c r="P17" t="n">
-        <v>301.1611192690552</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.1611192690552</v>
+        <v>490.844665496228</v>
       </c>
       <c r="R17" t="n">
-        <v>301.1611192690552</v>
+        <v>490.844665496228</v>
       </c>
       <c r="S17" t="n">
-        <v>393.5997868111732</v>
+        <v>490.844665496228</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471753</v>
+        <v>490.6088666471782</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227572</v>
+        <v>473.1845019227598</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923396</v>
+        <v>433.6528134923422</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.390970391474</v>
+        <v>371.3909703914763</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>484.6416242957287</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="C18" t="n">
-        <v>434.1295387900933</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="D18" t="n">
-        <v>310.178865684986</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="E18" t="n">
-        <v>186.2281925798787</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="F18" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="G18" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="H18" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="I18" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K18" t="n">
-        <v>48.69249843149183</v>
+        <v>48.69249843149189</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2520893996963</v>
+        <v>163.1726257573491</v>
       </c>
       <c r="M18" t="n">
-        <v>288.7361441100119</v>
+        <v>163.1726257573491</v>
       </c>
       <c r="N18" t="n">
-        <v>406.1407351779789</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779789</v>
+        <v>406.140735177982</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.6416242957287</v>
+        <v>490.844665496228</v>
       </c>
       <c r="R18" t="n">
-        <v>484.6416242957287</v>
+        <v>381.6689126252488</v>
       </c>
       <c r="S18" t="n">
-        <v>484.6416242957287</v>
+        <v>257.7182395201407</v>
       </c>
       <c r="T18" t="n">
-        <v>484.6416242957287</v>
+        <v>257.7182395201407</v>
       </c>
       <c r="U18" t="n">
-        <v>484.6416242957287</v>
+        <v>257.7182395201407</v>
       </c>
       <c r="V18" t="n">
-        <v>484.6416242957287</v>
+        <v>257.7182395201407</v>
       </c>
       <c r="W18" t="n">
-        <v>484.6416242957287</v>
+        <v>257.7182395201407</v>
       </c>
       <c r="X18" t="n">
-        <v>484.6416242957287</v>
+        <v>257.7182395201407</v>
       </c>
       <c r="Y18" t="n">
-        <v>484.6416242957287</v>
+        <v>133.7675664150327</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154738</v>
+        <v>317.4102657154757</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633668</v>
+        <v>287.5525337633684</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203019</v>
+        <v>270.2537288203031</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111675</v>
+        <v>218.9076992111683</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733689</v>
+        <v>135.5209245733695</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400199</v>
+        <v>36.34803106400235</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="I20" t="n">
-        <v>27.80097512863827</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J20" t="n">
-        <v>27.80097512863827</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K20" t="n">
-        <v>27.80097512863827</v>
+        <v>87.94863295898259</v>
       </c>
       <c r="L20" t="n">
-        <v>76.1881043798499</v>
+        <v>209.432687669299</v>
       </c>
       <c r="M20" t="n">
-        <v>158.904068558013</v>
+        <v>292.1486518474621</v>
       </c>
       <c r="N20" t="n">
-        <v>236.1160274964625</v>
+        <v>369.3606107859116</v>
       </c>
       <c r="O20" t="n">
-        <v>272.1157321008575</v>
+        <v>490.844665496228</v>
       </c>
       <c r="P20" t="n">
-        <v>272.1157321008575</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Q20" t="n">
-        <v>272.1157321008575</v>
+        <v>490.844665496228</v>
       </c>
       <c r="R20" t="n">
-        <v>393.5997868111732</v>
+        <v>490.844665496228</v>
       </c>
       <c r="S20" t="n">
-        <v>393.5997868111732</v>
+        <v>490.844665496228</v>
       </c>
       <c r="T20" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471753</v>
+        <v>490.608866647178</v>
       </c>
       <c r="W20" t="n">
-        <v>473.184501922757</v>
+        <v>473.1845019227598</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923398</v>
+        <v>433.6528134923421</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914741</v>
+        <v>371.3909703914763</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>186.2281925798787</v>
+        <v>236.7402780855156</v>
       </c>
       <c r="C21" t="n">
-        <v>186.2281925798787</v>
+        <v>118.06631998212</v>
       </c>
       <c r="D21" t="n">
-        <v>186.2281925798787</v>
+        <v>118.06631998212</v>
       </c>
       <c r="E21" t="n">
-        <v>186.2281925798787</v>
+        <v>118.06631998212</v>
       </c>
       <c r="F21" t="n">
-        <v>186.2281925798787</v>
+        <v>118.06631998212</v>
       </c>
       <c r="G21" t="n">
-        <v>186.2281925798787</v>
+        <v>118.06631998212</v>
       </c>
       <c r="H21" t="n">
-        <v>62.27751947477144</v>
+        <v>118.06631998212</v>
       </c>
       <c r="I21" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K21" t="n">
-        <v>9.816893309924497</v>
+        <v>48.69249843149189</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3764842781289</v>
+        <v>48.69249843149189</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8765560755936</v>
+        <v>163.1726257573491</v>
       </c>
       <c r="N21" t="n">
-        <v>369.3606107859092</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="O21" t="n">
-        <v>490.8446654962249</v>
+        <v>406.140735177982</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962249</v>
+        <v>490.844665496228</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.6416242957287</v>
+        <v>484.6416242957318</v>
       </c>
       <c r="R21" t="n">
-        <v>360.6909511906214</v>
+        <v>484.6416242957318</v>
       </c>
       <c r="S21" t="n">
-        <v>236.7402780855141</v>
+        <v>360.6909511906237</v>
       </c>
       <c r="T21" t="n">
-        <v>236.7402780855141</v>
+        <v>360.6909511906237</v>
       </c>
       <c r="U21" t="n">
-        <v>236.7402780855141</v>
+        <v>360.6909511906237</v>
       </c>
       <c r="V21" t="n">
-        <v>236.7402780855141</v>
+        <v>360.6909511906237</v>
       </c>
       <c r="W21" t="n">
-        <v>236.7402780855141</v>
+        <v>236.7402780855156</v>
       </c>
       <c r="X21" t="n">
-        <v>186.2281925798787</v>
+        <v>236.7402780855156</v>
       </c>
       <c r="Y21" t="n">
-        <v>186.2281925798787</v>
+        <v>236.7402780855156</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924561</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154738</v>
+        <v>317.4102657154759</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633669</v>
+        <v>287.5525337633687</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203019</v>
+        <v>270.2537288203035</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111674</v>
+        <v>218.9076992111688</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733689</v>
+        <v>135.5209245733701</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400202</v>
+        <v>36.34803106400236</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924497</v>
+        <v>103.6412951028498</v>
       </c>
       <c r="K23" t="n">
-        <v>9.816893309924497</v>
+        <v>103.6412951028498</v>
       </c>
       <c r="L23" t="n">
-        <v>58.20402256113613</v>
+        <v>225.1253498131663</v>
       </c>
       <c r="M23" t="n">
-        <v>140.9199867392992</v>
+        <v>307.8413139913295</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1319456777487</v>
+        <v>385.0532729297789</v>
       </c>
       <c r="O23" t="n">
-        <v>254.1316502821438</v>
+        <v>421.052977534174</v>
       </c>
       <c r="P23" t="n">
-        <v>254.1316502821438</v>
+        <v>421.052977534174</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.3606107859089</v>
+        <v>421.052977534174</v>
       </c>
       <c r="R23" t="n">
-        <v>490.8446654962246</v>
+        <v>421.052977534174</v>
       </c>
       <c r="S23" t="n">
-        <v>490.8446654962246</v>
+        <v>421.052977534174</v>
       </c>
       <c r="T23" t="n">
-        <v>490.8446654962246</v>
+        <v>421.052977534174</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962246</v>
+        <v>490.8446654962283</v>
       </c>
       <c r="V23" t="n">
-        <v>490.6088666471751</v>
+        <v>490.6088666471785</v>
       </c>
       <c r="W23" t="n">
-        <v>473.184501922757</v>
+        <v>473.1845019227601</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923397</v>
+        <v>433.6528134923425</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914741</v>
+        <v>371.3909703914766</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>186.2281925798787</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="C24" t="n">
-        <v>186.2281925798787</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="D24" t="n">
-        <v>186.2281925798787</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="E24" t="n">
-        <v>186.2281925798787</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="F24" t="n">
-        <v>186.2281925798787</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="G24" t="n">
-        <v>186.2281925798787</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="H24" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="I24" t="n">
-        <v>62.27751947477144</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3764842781289</v>
+        <v>126.3925013652788</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8765560755936</v>
+        <v>247.8765560755953</v>
       </c>
       <c r="N24" t="n">
-        <v>369.3606107859092</v>
+        <v>369.3606107859118</v>
       </c>
       <c r="O24" t="n">
-        <v>490.8446654962249</v>
+        <v>490.8446654962283</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962249</v>
+        <v>490.8446654962283</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.6416242957287</v>
+        <v>484.6416242957321</v>
       </c>
       <c r="R24" t="n">
-        <v>484.6416242957287</v>
+        <v>484.6416242957321</v>
       </c>
       <c r="S24" t="n">
-        <v>484.6416242957287</v>
+        <v>484.6416242957321</v>
       </c>
       <c r="T24" t="n">
-        <v>484.6416242957287</v>
+        <v>484.6416242957321</v>
       </c>
       <c r="U24" t="n">
-        <v>484.6416242957287</v>
+        <v>360.6909511906239</v>
       </c>
       <c r="V24" t="n">
-        <v>484.6416242957287</v>
+        <v>236.7402780855157</v>
       </c>
       <c r="W24" t="n">
-        <v>484.6416242957287</v>
+        <v>236.7402780855157</v>
       </c>
       <c r="X24" t="n">
-        <v>434.1295387900933</v>
+        <v>112.7896049804076</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.178865684986</v>
+        <v>112.7896049804076</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924497</v>
+        <v>9.816893309924566</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686421</v>
+        <v>885.8369123686419</v>
       </c>
       <c r="D26" t="n">
         <v>759.7242097666776</v>
@@ -6212,34 +6212,34 @@
         <v>599.5642824986438</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019459</v>
+        <v>407.363610201946</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336801</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070321</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J26" t="n">
         <v>171.7479657778252</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.222566061305</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381364</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419191</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936004</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P26" t="n">
         <v>1662.071556543468</v>
@@ -6248,25 +6248,25 @@
         <v>1785.188566519004</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556109</v>
       </c>
       <c r="S26" t="n">
         <v>1789.212139823153</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.617585787405</v>
+        <v>1779.617585787406</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054897</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546948</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.72447116363</v>
+        <v>1506.724471163631</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074314</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.303144314548</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>670.5956143276046</v>
+        <v>68.12020852786753</v>
       </c>
       <c r="C27" t="n">
-        <v>530.8452462114319</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D27" t="n">
-        <v>370.0651299724636</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5019260938781</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268949</v>
+        <v>74.94981493268951</v>
       </c>
       <c r="L27" t="n">
         <v>193.5094059008939</v>
@@ -6324,31 +6324,31 @@
         <v>800.7408945687731</v>
       </c>
       <c r="Q27" t="n">
-        <v>794.5378533682768</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="R27" t="n">
-        <v>794.5378533682768</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="S27" t="n">
-        <v>794.5378533682768</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="T27" t="n">
-        <v>792.4900373536998</v>
+        <v>798.6930785541961</v>
       </c>
       <c r="U27" t="n">
-        <v>767.9374009950587</v>
+        <v>559.0691451589058</v>
       </c>
       <c r="V27" t="n">
-        <v>739.928979935342</v>
+        <v>315.9894270625399</v>
       </c>
       <c r="W27" t="n">
-        <v>685.6017077022824</v>
+        <v>261.6621548294804</v>
       </c>
       <c r="X27" t="n">
-        <v>681.1650103556278</v>
+        <v>257.2254574828258</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.5956143276046</v>
+        <v>246.6560614548026</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D28" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="E28" t="n">
-        <v>150.2828498431104</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F28" t="n">
-        <v>223.536614672468</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="G28" t="n">
-        <v>223.536614672468</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="H28" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I28" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J28" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K28" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="L28" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="M28" t="n">
-        <v>270.2039500901372</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="N28" t="n">
         <v>270.2039500901372</v>
@@ -6418,16 +6418,16 @@
         <v>160.1127090344208</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483932</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096629</v>
+        <v>49.4273008109663</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868356</v>
+        <v>40.33753177868358</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1024.508541979649</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686424</v>
+        <v>885.8369123686426</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666781</v>
+        <v>759.7242097666784</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986442</v>
+        <v>599.5642824986446</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019462</v>
+        <v>407.3636102019469</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336799</v>
+        <v>199.3768190336807</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0317836207029</v>
+        <v>64.03178362070278</v>
       </c>
       <c r="I29" t="n">
         <v>36.07420981112216</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7479657778251</v>
+        <v>171.7479657778252</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613046</v>
+        <v>377.2225660613049</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381361</v>
+        <v>636.401073538136</v>
       </c>
       <c r="M29" t="n">
         <v>929.908415941919</v>
@@ -6479,7 +6479,7 @@
         <v>1464.702835936003</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543468</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.188566519004</v>
@@ -6494,16 +6494,16 @@
         <v>1779.617585787406</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054897</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546948</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W29" t="n">
         <v>1506.72447116363</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074314</v>
+        <v>1358.378885074313</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.303144314548</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>455.5243172909552</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="C30" t="n">
-        <v>455.5243172909552</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="D30" t="n">
-        <v>455.5243172909552</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="E30" t="n">
-        <v>431.7012625103596</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="F30" t="n">
-        <v>271.2735462276037</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G30" t="n">
-        <v>271.2735462276037</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3236364833176</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I30" t="n">
         <v>36.07420981112216</v>
@@ -6561,31 +6561,31 @@
         <v>800.7408945687731</v>
       </c>
       <c r="Q30" t="n">
-        <v>794.5378533682768</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="R30" t="n">
-        <v>794.5378533682768</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="S30" t="n">
-        <v>794.5378533682768</v>
+        <v>750.5867592078483</v>
       </c>
       <c r="T30" t="n">
-        <v>577.4187403170506</v>
+        <v>748.5389431932713</v>
       </c>
       <c r="U30" t="n">
-        <v>552.8661039584094</v>
+        <v>723.9863068346302</v>
       </c>
       <c r="V30" t="n">
-        <v>524.8576828986926</v>
+        <v>480.9065887382643</v>
       </c>
       <c r="W30" t="n">
-        <v>470.530410665633</v>
+        <v>211.5080194685556</v>
       </c>
       <c r="X30" t="n">
-        <v>466.0937133189784</v>
+        <v>207.0713221219012</v>
       </c>
       <c r="Y30" t="n">
-        <v>455.5243172909552</v>
+        <v>196.5019260938781</v>
       </c>
     </row>
     <row r="31">
@@ -6622,46 +6622,46 @@
         <v>36.07420981112216</v>
       </c>
       <c r="K31" t="n">
-        <v>74.02613464957128</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="L31" t="n">
-        <v>74.02613464957128</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="M31" t="n">
-        <v>260.5952678013794</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="N31" t="n">
-        <v>260.5952678013794</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="O31" t="n">
-        <v>260.5952678013794</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="P31" t="n">
-        <v>260.5952678013794</v>
+        <v>184.9607793539175</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.5952678013794</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153499</v>
+        <v>247.5432591153492</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6134281695739</v>
+        <v>236.6134281695733</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1127090344209</v>
+        <v>160.1127090344204</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483933</v>
+        <v>127.599142248393</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096634</v>
+        <v>49.42730081096612</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868359</v>
+        <v>40.33753177868348</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07420981112216</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.508541979649</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686424</v>
+        <v>885.8369123686422</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666781</v>
+        <v>759.7242097666779</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986442</v>
+        <v>599.564282498644</v>
       </c>
       <c r="F32" t="n">
         <v>407.3636102019462</v>
@@ -6707,7 +6707,7 @@
         <v>636.4010735381362</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419191</v>
       </c>
       <c r="N32" t="n">
         <v>1217.911753105989</v>
@@ -6728,7 +6728,7 @@
         <v>1789.212139823153</v>
       </c>
       <c r="T32" t="n">
-        <v>1779.617585787406</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U32" t="n">
         <v>1742.012430054896</v>
@@ -6740,7 +6740,7 @@
         <v>1506.72447116363</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.378885074314</v>
+        <v>1358.378885074313</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.303144314548</v>
@@ -6801,25 +6801,25 @@
         <v>794.5378533682768</v>
       </c>
       <c r="R33" t="n">
-        <v>794.5378533682768</v>
+        <v>783.5780261062581</v>
       </c>
       <c r="S33" t="n">
-        <v>794.5378533682768</v>
+        <v>590.1590429250926</v>
       </c>
       <c r="T33" t="n">
-        <v>792.4900373536998</v>
+        <v>588.1112269105156</v>
       </c>
       <c r="U33" t="n">
-        <v>563.5585905518744</v>
+        <v>348.4872935152254</v>
       </c>
       <c r="V33" t="n">
         <v>320.4788724555086</v>
       </c>
       <c r="W33" t="n">
-        <v>51.0803031857999</v>
+        <v>266.151600222449</v>
       </c>
       <c r="X33" t="n">
-        <v>46.64360583914538</v>
+        <v>261.7149028757945</v>
       </c>
       <c r="Y33" t="n">
         <v>36.07420981112216</v>
@@ -6862,22 +6862,22 @@
         <v>36.07420981112216</v>
       </c>
       <c r="L34" t="n">
-        <v>75.04272983029054</v>
+        <v>86.23851662579574</v>
       </c>
       <c r="M34" t="n">
-        <v>75.04272983029054</v>
+        <v>86.23851662579574</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2039500901372</v>
+        <v>86.23851662579574</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2039500901372</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2039500901372</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901372</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="R34" t="n">
         <v>270.2039500901372</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.245428056134</v>
+        <v>772.2454280561319</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457956</v>
+        <v>669.321906245794</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444994</v>
+        <v>578.957311444498</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771336</v>
+        <v>454.5454919771325</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811037</v>
+        <v>298.0929274811031</v>
       </c>
       <c r="G35" t="n">
-        <v>125.8542441135065</v>
+        <v>125.8542441135061</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586237</v>
+        <v>33.89281886586262</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880001</v>
+        <v>204.6032952880007</v>
       </c>
       <c r="K35" t="n">
-        <v>332.1451684731354</v>
+        <v>256.6812406498902</v>
       </c>
       <c r="L35" t="n">
-        <v>380.5322977243471</v>
+        <v>550.8964685821568</v>
       </c>
       <c r="M35" t="n">
-        <v>463.2482619025102</v>
+        <v>633.61243276032</v>
       </c>
       <c r="N35" t="n">
-        <v>540.4602208409597</v>
+        <v>956.6524903798243</v>
       </c>
       <c r="O35" t="n">
-        <v>822.2880241264094</v>
+        <v>1238.480293665274</v>
       </c>
       <c r="P35" t="n">
-        <v>1054.693465189308</v>
+        <v>1238.480293665274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1212.847195620279</v>
+        <v>1238.480293665274</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112818</v>
+        <v>1292.038938157813</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014884</v>
+        <v>1312.865825059879</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.865825059883</v>
+        <v>1312.865825059879</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.008777128041</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V35" t="n">
-        <v>1237.70718842076</v>
+        <v>1237.707188420757</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.217033838111</v>
+        <v>1147.217033838108</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549462</v>
+        <v>1034.61955554946</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903655</v>
+        <v>899.2919225903634</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.25731650119766</v>
+        <v>136.1660475293934</v>
       </c>
       <c r="C36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="D36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="E36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="F36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="G36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="H36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="I36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="K36" t="n">
-        <v>65.132921622765</v>
+        <v>65.13292162276494</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7035,31 +7035,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.7209600583524</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="R36" t="n">
-        <v>784.7209600583524</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="S36" t="n">
-        <v>784.7209600583524</v>
+        <v>597.5050180776832</v>
       </c>
       <c r="T36" t="n">
-        <v>784.7209600583524</v>
+        <v>380.385905026457</v>
       </c>
       <c r="U36" t="n">
-        <v>784.7209600583524</v>
+        <v>380.385905026457</v>
       </c>
       <c r="V36" t="n">
-        <v>784.7209600583524</v>
+        <v>380.385905026457</v>
       </c>
       <c r="W36" t="n">
-        <v>649.9418568761088</v>
+        <v>361.8067405940658</v>
       </c>
       <c r="X36" t="n">
-        <v>430.4338624928051</v>
+        <v>361.8067405940658</v>
       </c>
       <c r="Y36" t="n">
-        <v>204.7931694281328</v>
+        <v>136.1660475293934</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="C37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="D37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="E37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="F37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="G37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="H37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="J37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="K37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="L37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="M37" t="n">
-        <v>109.4336614724414</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="N37" t="n">
-        <v>109.4336614724414</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="O37" t="n">
-        <v>109.4336614724414</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="P37" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="R37" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="S37" t="n">
-        <v>109.4336614724414</v>
+        <v>109.4336614724407</v>
       </c>
       <c r="T37" t="n">
-        <v>109.4336614724414</v>
+        <v>109.4336614724407</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795656</v>
+        <v>68.68105013795618</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795656</v>
+        <v>68.68105013795618</v>
       </c>
       <c r="W37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="X37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.245428056134</v>
+        <v>772.2454280561325</v>
       </c>
       <c r="C38" t="n">
-        <v>669.3219062457958</v>
+        <v>669.3219062457946</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444995</v>
+        <v>578.9573114444986</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771337</v>
+        <v>454.5454919771331</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811039</v>
+        <v>298.0929274811036</v>
       </c>
       <c r="G38" t="n">
-        <v>125.8542441135065</v>
+        <v>125.8542441135061</v>
       </c>
       <c r="H38" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="I38" t="n">
-        <v>26.25731650119766</v>
+        <v>33.89281886586262</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9677929233354</v>
+        <v>204.6032952880007</v>
       </c>
       <c r="K38" t="n">
-        <v>437.4791136622497</v>
+        <v>445.1146160269154</v>
       </c>
       <c r="L38" t="n">
-        <v>485.8662429134614</v>
+        <v>493.501745278127</v>
       </c>
       <c r="M38" t="n">
-        <v>568.5822070916245</v>
+        <v>576.2177094562902</v>
       </c>
       <c r="N38" t="n">
-        <v>645.7941660300739</v>
+        <v>653.4296683947397</v>
       </c>
       <c r="O38" t="n">
-        <v>822.2880241264094</v>
+        <v>875.8466686189431</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.693465189308</v>
+        <v>1108.252109681842</v>
       </c>
       <c r="Q38" t="n">
-        <v>1212.847195620279</v>
+        <v>1266.405840112814</v>
       </c>
       <c r="R38" t="n">
-        <v>1266.405840112818</v>
+        <v>1266.405840112814</v>
       </c>
       <c r="S38" t="n">
-        <v>1287.232727014884</v>
+        <v>1287.23272701488</v>
       </c>
       <c r="T38" t="n">
-        <v>1312.865825059883</v>
+        <v>1312.865825059879</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.008777128041</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420761</v>
+        <v>1237.707188420758</v>
       </c>
       <c r="W38" t="n">
-        <v>1147.217033838111</v>
+        <v>1147.217033838109</v>
       </c>
       <c r="X38" t="n">
-        <v>1034.619555549463</v>
+        <v>1034.61955554946</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903656</v>
+        <v>899.2919225903638</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="C39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="D39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="E39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="F39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="G39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="H39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="J39" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="K39" t="n">
-        <v>65.132921622765</v>
+        <v>65.13292162276494</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7272,31 +7272,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q39" t="n">
-        <v>784.7209600583524</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="R39" t="n">
-        <v>784.7209600583524</v>
+        <v>697.3873918933481</v>
       </c>
       <c r="S39" t="n">
-        <v>784.7209600583524</v>
+        <v>503.9684087121826</v>
       </c>
       <c r="T39" t="n">
-        <v>784.7209600583524</v>
+        <v>503.9684087121826</v>
       </c>
       <c r="U39" t="n">
-        <v>784.7209600583524</v>
+        <v>264.3444753168924</v>
       </c>
       <c r="V39" t="n">
-        <v>693.699733081145</v>
+        <v>264.3444753168924</v>
       </c>
       <c r="W39" t="n">
-        <v>424.3011638114364</v>
+        <v>245.7653108845012</v>
       </c>
       <c r="X39" t="n">
-        <v>204.7931694281328</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="Y39" t="n">
-        <v>204.7931694281328</v>
+        <v>26.25731650119758</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="C40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="D40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="E40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="F40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="G40" t="n">
-        <v>26.66756482026739</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="H40" t="n">
-        <v>26.66756482026739</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="I40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="J40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="K40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="L40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="M40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="N40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="O40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="P40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="R40" t="n">
-        <v>109.4336614724414</v>
+        <v>96.6066842413949</v>
       </c>
       <c r="S40" t="n">
-        <v>109.4336614724414</v>
+        <v>109.4336614724407</v>
       </c>
       <c r="T40" t="n">
-        <v>109.4336614724414</v>
+        <v>109.4336614724407</v>
       </c>
       <c r="U40" t="n">
-        <v>68.68105013795656</v>
+        <v>68.68105013795618</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795656</v>
+        <v>68.68105013795618</v>
       </c>
       <c r="W40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="X40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.25731650119766</v>
+        <v>26.25731650119758</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780267</v>
+        <v>820.8965178780265</v>
       </c>
       <c r="C41" t="n">
-        <v>710.182462076601</v>
+        <v>710.1824620766009</v>
       </c>
       <c r="D41" t="n">
         <v>612.0273332842175</v>
@@ -7397,7 +7397,7 @@
         <v>479.8249798257643</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386472</v>
+        <v>315.5818813386475</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799621</v>
@@ -7409,31 +7409,31 @@
         <v>28.16520237656599</v>
       </c>
       <c r="J41" t="n">
-        <v>191.240176434039</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1159948082886</v>
+        <v>261.0410207508157</v>
       </c>
       <c r="L41" t="n">
-        <v>710.6957203758901</v>
+        <v>521.5083325999969</v>
       </c>
       <c r="M41" t="n">
-        <v>793.4116845540532</v>
+        <v>842.41689309455</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6236434925027</v>
+        <v>1157.821448349389</v>
       </c>
       <c r="O41" t="n">
-        <v>955.8598297181496</v>
+        <v>1193.821152953785</v>
       </c>
       <c r="P41" t="n">
-        <v>1180.629768416384</v>
+        <v>1193.821152953785</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.14799648269</v>
+        <v>1344.339381020091</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.071138610564</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="S41" t="n">
         <v>1390.262523147965</v>
@@ -7445,7 +7445,7 @@
         <v>1398.612536905371</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.520414207003</v>
+        <v>1317.520414207002</v>
       </c>
       <c r="W41" t="n">
         <v>1219.239725633266</v>
@@ -7454,7 +7454,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033456</v>
+        <v>955.7335464033455</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.16520237656599</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="C42" t="n">
-        <v>28.16520237656599</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="D42" t="n">
-        <v>28.16520237656599</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="E42" t="n">
-        <v>28.16520237656599</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="F42" t="n">
-        <v>28.16520237656599</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="G42" t="n">
-        <v>28.16520237656599</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="H42" t="n">
         <v>28.16520237656599</v>
@@ -7491,49 +7491,49 @@
         <v>28.16520237656599</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813332</v>
+        <v>67.04080749813335</v>
       </c>
       <c r="L42" t="n">
         <v>185.6003984663378</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7085132490523</v>
+        <v>368.7085132490524</v>
       </c>
       <c r="N42" t="n">
-        <v>575.0828445417446</v>
+        <v>575.0828445417447</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1279568159709</v>
+        <v>708.1279568159711</v>
       </c>
       <c r="P42" t="n">
-        <v>792.8318871342169</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="Q42" t="n">
-        <v>786.6288459337206</v>
+        <v>786.628845933721</v>
       </c>
       <c r="R42" t="n">
-        <v>786.6288459337206</v>
+        <v>786.628845933721</v>
       </c>
       <c r="S42" t="n">
-        <v>786.6288459337206</v>
+        <v>593.2098627525555</v>
       </c>
       <c r="T42" t="n">
-        <v>786.6288459337206</v>
+        <v>376.0907497013293</v>
       </c>
       <c r="U42" t="n">
-        <v>786.6288459337206</v>
+        <v>376.0907497013293</v>
       </c>
       <c r="V42" t="n">
-        <v>695.6076189565134</v>
+        <v>376.0399024511933</v>
       </c>
       <c r="W42" t="n">
-        <v>426.2090496868047</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="X42" t="n">
-        <v>206.7010553035011</v>
+        <v>106.6413331814846</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.7010553035011</v>
+        <v>106.6413331814846</v>
       </c>
     </row>
     <row r="43">
@@ -7576,34 +7576,34 @@
         <v>28.16520237656599</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592354</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592354</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592354</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592354</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592354</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4786083064314</v>
+        <v>114.7897175256162</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="U43" t="n">
-        <v>82.93546298085911</v>
+        <v>82.93546298085906</v>
       </c>
       <c r="V43" t="n">
-        <v>78.37947000441227</v>
+        <v>78.37947000441224</v>
       </c>
       <c r="W43" t="n">
         <v>28.16520237656599</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.896517878027</v>
+        <v>820.8965178780273</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766015</v>
+        <v>710.1824620766017</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0273332842178</v>
+        <v>612.027333284218</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8249798257644</v>
+        <v>479.8249798257646</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5818813386472</v>
+        <v>315.5818813386475</v>
       </c>
       <c r="G44" t="n">
         <v>135.5526639799621</v>
@@ -7646,31 +7646,31 @@
         <v>28.16520237656599</v>
       </c>
       <c r="J44" t="n">
-        <v>191.240176434039</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1159948082886</v>
+        <v>261.0410207508156</v>
       </c>
       <c r="L44" t="n">
-        <v>710.6957203758901</v>
+        <v>547.620746318417</v>
       </c>
       <c r="M44" t="n">
-        <v>842.6481661753051</v>
+        <v>868.5293068129699</v>
       </c>
       <c r="N44" t="n">
-        <v>919.8601251137545</v>
+        <v>1116.07022222718</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8598297181496</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.629768416384</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.14799648269</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.071138610564</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="S44" t="n">
         <v>1390.262523147965</v>
@@ -7685,13 +7685,13 @@
         <v>1317.520414207003</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633267</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353531</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033461</v>
+        <v>955.7335464033463</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.16520237656599</v>
+        <v>353.4843638961328</v>
       </c>
       <c r="C45" t="n">
-        <v>28.16520237656599</v>
+        <v>164.0720896290965</v>
       </c>
       <c r="D45" t="n">
-        <v>28.16520237656599</v>
+        <v>164.0720896290965</v>
       </c>
       <c r="E45" t="n">
         <v>28.16520237656599</v>
@@ -7728,49 +7728,49 @@
         <v>28.16520237656599</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813332</v>
+        <v>67.04080749813329</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6003984663378</v>
+        <v>185.6003984663377</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7085132490523</v>
+        <v>368.7085132490522</v>
       </c>
       <c r="N45" t="n">
-        <v>575.0828445417446</v>
+        <v>575.0828445417444</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159709</v>
+        <v>708.1279568159707</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8318871342169</v>
+        <v>792.8318871342167</v>
       </c>
       <c r="Q45" t="n">
-        <v>786.6288459337206</v>
+        <v>792.8318871342167</v>
       </c>
       <c r="R45" t="n">
-        <v>786.6288459337206</v>
+        <v>792.8318871342167</v>
       </c>
       <c r="S45" t="n">
-        <v>786.6288459337206</v>
+        <v>599.4129039530512</v>
       </c>
       <c r="T45" t="n">
-        <v>786.6288459337206</v>
+        <v>599.4129039530512</v>
       </c>
       <c r="U45" t="n">
-        <v>786.6288459337206</v>
+        <v>599.4129039530512</v>
       </c>
       <c r="V45" t="n">
-        <v>742.7124590942507</v>
+        <v>599.3620567029152</v>
       </c>
       <c r="W45" t="n">
-        <v>473.313889824542</v>
+        <v>572.9923582794364</v>
       </c>
       <c r="X45" t="n">
-        <v>253.8058954412383</v>
+        <v>353.4843638961328</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.16520237656599</v>
+        <v>353.4843638961328</v>
       </c>
     </row>
     <row r="46">
@@ -7807,40 +7807,40 @@
         <v>28.16520237656599</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="U46" t="n">
-        <v>82.93546298085911</v>
+        <v>82.93546298085906</v>
       </c>
       <c r="V46" t="n">
-        <v>78.37947000441227</v>
+        <v>78.37947000441224</v>
       </c>
       <c r="W46" t="n">
         <v>28.16520237656599</v>
@@ -8775,16 +8775,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>198.2580448384674</v>
+        <v>239.5303559843452</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510099</v>
+        <v>220.7454341052054</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681787</v>
+        <v>120.8337805941225</v>
       </c>
       <c r="P12" t="n">
-        <v>120.8043485046934</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.1051855825678</v>
+        <v>164.2987994584346</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624957</v>
       </c>
       <c r="M15" t="n">
-        <v>237.5263328400505</v>
+        <v>239.5303559843452</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510099</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O15" t="n">
-        <v>243.5449469681787</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P15" t="n">
-        <v>120.8043485046934</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,16 +9246,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>236.1838734108363</v>
       </c>
       <c r="M18" t="n">
-        <v>239.5303559843445</v>
+        <v>116.8191896102883</v>
       </c>
       <c r="N18" t="n">
-        <v>220.7454341052031</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O18" t="n">
-        <v>120.8337805941225</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624957</v>
       </c>
       <c r="M21" t="n">
-        <v>237.5263328400505</v>
+        <v>232.4556818586289</v>
       </c>
       <c r="N21" t="n">
-        <v>224.8661044510099</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O21" t="n">
-        <v>243.5449469681787</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P21" t="n">
-        <v>120.8043485046934</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,16 +9720,16 @@
         <v>132.1051855825678</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>238.3005206123484</v>
       </c>
       <c r="M24" t="n">
-        <v>237.5263328400505</v>
+        <v>239.5303559843454</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510099</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681787</v>
+        <v>243.5449469681795</v>
       </c>
       <c r="P24" t="n">
         <v>120.8043485046934</v>
@@ -23258,25 +23258,25 @@
         <v>179.8756704904437</v>
       </c>
       <c r="C11" t="n">
-        <v>155.9939274937892</v>
+        <v>33.28276111973216</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548376</v>
+        <v>20.84942338078062</v>
       </c>
       <c r="E11" t="n">
-        <v>54.55617580019027</v>
+        <v>176.8403631611561</v>
       </c>
       <c r="F11" t="n">
-        <v>133.9660658148737</v>
+        <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
         <v>224.6159374354766</v>
       </c>
       <c r="H11" t="n">
-        <v>29.98943286368385</v>
+        <v>29.98943286368308</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037787</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428242</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407752</v>
+        <v>55.9381183540775</v>
       </c>
       <c r="V11" t="n">
         <v>126.6682137217624</v>
@@ -23324,7 +23324,7 @@
         <v>165.5711444073165</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.36283115700401</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.16450411638745</v>
+        <v>179.8756704904437</v>
       </c>
       <c r="C14" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D14" t="n">
-        <v>143.5605897548376</v>
+        <v>143.5605897548377</v>
       </c>
       <c r="E14" t="n">
         <v>177.2673421742465</v>
       </c>
       <c r="F14" t="n">
-        <v>208.9876797526238</v>
+        <v>86.27651337856685</v>
       </c>
       <c r="G14" t="n">
-        <v>101.9047710614203</v>
+        <v>162.9189543435851</v>
       </c>
       <c r="H14" t="n">
-        <v>152.7005992377401</v>
+        <v>29.9894328636831</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037787</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451853</v>
+        <v>33.06238140451856</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428242</v>
+        <v>28.20762267428245</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407752</v>
+        <v>55.93811835407755</v>
       </c>
       <c r="V14" t="n">
         <v>126.6682137217624</v>
       </c>
       <c r="W14" t="n">
-        <v>143.6848939383772</v>
+        <v>143.6848939383773</v>
       </c>
       <c r="X14" t="n">
-        <v>57.4871490650478</v>
+        <v>165.5711444073165</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.36283115700401</v>
+        <v>65.36283115700326</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>88193.19951764596</v>
       </c>
       <c r="C2" t="n">
-        <v>88193.19951764597</v>
+        <v>88193.19951764596</v>
       </c>
       <c r="D2" t="n">
-        <v>88193.19951764596</v>
+        <v>88193.19951764599</v>
       </c>
       <c r="E2" t="n">
+        <v>75999.00890204789</v>
+      </c>
+      <c r="F2" t="n">
         <v>75999.00890204785</v>
       </c>
-      <c r="F2" t="n">
-        <v>75999.00890204782</v>
-      </c>
       <c r="G2" t="n">
-        <v>88371.85488585367</v>
+        <v>88371.8548858537</v>
       </c>
       <c r="H2" t="n">
-        <v>88371.85488585362</v>
+        <v>88371.85488585368</v>
       </c>
       <c r="I2" t="n">
         <v>88371.85488585364</v>
       </c>
       <c r="J2" t="n">
-        <v>88371.85488585361</v>
+        <v>88371.85488585359</v>
       </c>
       <c r="K2" t="n">
-        <v>88371.85488585359</v>
+        <v>88371.85488585357</v>
       </c>
       <c r="L2" t="n">
-        <v>88371.85488585357</v>
+        <v>88371.85488585358</v>
       </c>
       <c r="M2" t="n">
         <v>88371.85488585365</v>
       </c>
       <c r="N2" t="n">
-        <v>88371.85488585362</v>
+        <v>88371.8548858537</v>
       </c>
       <c r="O2" t="n">
-        <v>88371.85488585367</v>
+        <v>88371.85488585365</v>
       </c>
       <c r="P2" t="n">
         <v>88371.85488585365</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.9947649909</v>
+        <v>275420.9947649911</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101147.8182889627</v>
+        <v>101147.8182889625</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889627</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812911</v>
+        <v>28312.50137812935</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053807</v>
+        <v>68757.7290905383</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>451388.1479621753</v>
       </c>
       <c r="E4" t="n">
-        <v>344201.4566840515</v>
+        <v>344201.4566840517</v>
       </c>
       <c r="F4" t="n">
-        <v>344201.4566840515</v>
+        <v>344201.4566840517</v>
       </c>
       <c r="G4" t="n">
         <v>414704.5356053187</v>
@@ -26442,22 +26442,22 @@
         <v>413278.3638748868</v>
       </c>
       <c r="K4" t="n">
-        <v>413278.3638748867</v>
+        <v>413278.3638748868</v>
       </c>
       <c r="L4" t="n">
-        <v>413278.3638748867</v>
+        <v>413278.3638748868</v>
       </c>
       <c r="M4" t="n">
         <v>412733.9956987765</v>
       </c>
       <c r="N4" t="n">
-        <v>412733.9956987764</v>
+        <v>412733.9956987765</v>
       </c>
       <c r="O4" t="n">
         <v>412836.9242581265</v>
       </c>
       <c r="P4" t="n">
-        <v>412836.9242581265</v>
+        <v>412836.9242581266</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538855</v>
+        <v>26051.38465538859</v>
       </c>
       <c r="F5" t="n">
-        <v>26051.38465538855</v>
+        <v>26051.38465538859</v>
       </c>
       <c r="G5" t="n">
-        <v>36680.62957505704</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="H5" t="n">
-        <v>36680.62957505704</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="I5" t="n">
-        <v>36680.62957505704</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="J5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930413</v>
       </c>
       <c r="K5" t="n">
         <v>47579.79330930412</v>
@@ -26500,10 +26500,10 @@
         <v>47579.79330930412</v>
       </c>
       <c r="M5" t="n">
-        <v>43094.20899170892</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="N5" t="n">
-        <v>43094.20899170892</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="O5" t="n">
         <v>43895.8092789131</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396822.5484445293</v>
+        <v>-396827.0148287345</v>
       </c>
       <c r="C6" t="n">
-        <v>-396822.5484445293</v>
+        <v>-396827.0148287345</v>
       </c>
       <c r="D6" t="n">
-        <v>-396822.5484445293</v>
+        <v>-396827.0148287345</v>
       </c>
       <c r="E6" t="n">
-        <v>-569674.8272023831</v>
+        <v>-569984.1483519786</v>
       </c>
       <c r="F6" t="n">
-        <v>-294253.8324373923</v>
+        <v>-294563.1535869875</v>
       </c>
       <c r="G6" t="n">
-        <v>-464161.1285834848</v>
+        <v>-464161.1285834846</v>
       </c>
       <c r="H6" t="n">
-        <v>-363013.3102945222</v>
+        <v>-363013.3102945221</v>
       </c>
       <c r="I6" t="n">
         <v>-363013.3102945221</v>
@@ -26546,22 +26546,22 @@
         <v>-527550.8177453928</v>
       </c>
       <c r="K6" t="n">
-        <v>-372486.3022983372</v>
+        <v>-372486.3022983374</v>
       </c>
       <c r="L6" t="n">
-        <v>-473634.1205872999</v>
+        <v>-473634.1205872997</v>
       </c>
       <c r="M6" t="n">
-        <v>-395768.8511827609</v>
+        <v>-395768.8511827611</v>
       </c>
       <c r="N6" t="n">
-        <v>-367456.3498046318</v>
+        <v>-367456.3498046317</v>
       </c>
       <c r="O6" t="n">
-        <v>-437118.607741724</v>
+        <v>-437118.6077417242</v>
       </c>
       <c r="P6" t="n">
-        <v>-368360.878651186</v>
+        <v>-368360.8786511861</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="G2" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H2" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I2" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="J2" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="K2" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="L2" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="M2" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="N2" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="O2" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="P2" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
     </row>
     <row r="3">
@@ -26768,16 +26768,16 @@
         <v>103.8244619716956</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7111663740562</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="J4" t="n">
-        <v>450.927622639027</v>
+        <v>450.9276226390272</v>
       </c>
       <c r="K4" t="n">
         <v>450.927622639027</v>
@@ -26820,10 +26820,10 @@
         <v>450.927622639027</v>
       </c>
       <c r="M4" t="n">
-        <v>328.2164562649708</v>
+        <v>328.2164562649698</v>
       </c>
       <c r="N4" t="n">
-        <v>328.2164562649708</v>
+        <v>328.2164562649698</v>
       </c>
       <c r="O4" t="n">
         <v>352.0650297070749</v>
@@ -26917,10 +26917,10 @@
         <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4347728612033</v>
+        <v>126.4347728612031</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.4858112050793</v>
+        <v>86.48581120507959</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612034</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266138</v>
+        <v>35.39062672266169</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649708</v>
+        <v>328.2164562649701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210417</v>
+        <v>23.84857344210513</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612033</v>
+        <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.4858112050793</v>
+        <v>86.48581120507959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,13 +28111,13 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>86.61767355984843</v>
+        <v>75.87638612011799</v>
       </c>
       <c r="K11" t="n">
         <v>5.370482769838617</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>47.10462542397016</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,10 +28126,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>86.34782838981954</v>
       </c>
       <c r="P11" t="n">
-        <v>136.2694063923953</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q11" t="n">
         <v>194.2115698873897</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>36.11227274587212</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7388978542471</v>
@@ -28187,10 +28187,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>46.69453673040535</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
@@ -28223,16 +28223,16 @@
         <v>194.2115698873897</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>114.5165276872803</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2115698873897</v>
+        <v>117.9377545413452</v>
       </c>
       <c r="W12" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="X12" t="n">
-        <v>194.2115698873897</v>
+        <v>108.9198346927264</v>
       </c>
       <c r="Y12" t="n">
         <v>194.2115698873897</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959906883239</v>
@@ -28272,16 +28272,16 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346798</v>
+        <v>189.185304947525</v>
       </c>
       <c r="L13" t="n">
-        <v>31.44053041360788</v>
+        <v>154.1516967876649</v>
       </c>
       <c r="M13" t="n">
-        <v>139.3532863981469</v>
+        <v>28.75263104112094</v>
       </c>
       <c r="N13" t="n">
-        <v>138.499204723322</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O13" t="n">
         <v>36.8026535858953</v>
@@ -28290,7 +28290,7 @@
         <v>57.89996696047068</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.2115698873897</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R13" t="n">
         <v>194.2115698873897</v>
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="J14" t="n">
-        <v>194.2115698873897</v>
+        <v>153.1095881116477</v>
       </c>
       <c r="K14" t="n">
         <v>5.370482769838617</v>
@@ -28357,7 +28357,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>39.15968740621547</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>134.3271120228664</v>
+        <v>136.2694063923961</v>
       </c>
       <c r="Q14" t="n">
         <v>88.55996792937721</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R15" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529682</v>
       </c>
       <c r="T15" t="n">
-        <v>186.9116450062843</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V15" t="n">
-        <v>117.937754541346</v>
+        <v>175.2719653426058</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X15" t="n">
-        <v>94.60174806541438</v>
+        <v>94.6017480654136</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="16">
@@ -28497,61 +28497,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959906883239</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H16" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7090929584652</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="J16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K16" t="n">
-        <v>189.1853049475242</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L16" t="n">
-        <v>91.01093490770191</v>
+        <v>154.1516967876649</v>
       </c>
       <c r="M16" t="n">
         <v>24.46691421597136</v>
       </c>
       <c r="N16" t="n">
-        <v>138.499204723322</v>
+        <v>138.4992047233228</v>
       </c>
       <c r="O16" t="n">
         <v>36.8026535858953</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89996696047068</v>
+        <v>62.45231532657331</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="17">
@@ -28561,46 +28561,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I17" t="n">
-        <v>288.1030962659609</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J17" t="n">
         <v>75.87638612011799</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838617</v>
+        <v>128.0816491438956</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>39.15968740621547</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>44.71928865845149</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>32.51391333307821</v>
       </c>
       <c r="P17" t="n">
         <v>13.55824001833908</v>
@@ -28612,25 +28612,25 @@
         <v>194.2115698873897</v>
       </c>
       <c r="S17" t="n">
-        <v>320.646342748593</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T17" t="n">
-        <v>320.646342748593</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
         <v>250.1496882414672</v>
       </c>
       <c r="V17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="18">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>54.03932802360873</v>
       </c>
       <c r="C18" t="n">
-        <v>137.5111868737869</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>36.46114870252232</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>49.11640546574345</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.11227274587212</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7388978542471</v>
@@ -28664,7 +28664,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3654897447971</v>
+        <v>26.2814944025277</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529684</v>
       </c>
       <c r="T18" t="n">
         <v>214.947921920714</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599686</v>
       </c>
     </row>
     <row r="19">
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I20" t="n">
-        <v>258.7643213485895</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J20" t="n">
         <v>75.87638612011799</v>
       </c>
       <c r="K20" t="n">
-        <v>5.370482769838617</v>
+        <v>84.29143191030127</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>73.83527824152</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>86.34782838981954</v>
       </c>
       <c r="P20" t="n">
         <v>13.55824001833908</v>
@@ -28846,28 +28846,28 @@
         <v>88.55996792937721</v>
       </c>
       <c r="R20" t="n">
-        <v>316.9227362614459</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S20" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
-        <v>320.646342748593</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
         <v>250.1496882414672</v>
       </c>
       <c r="V20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>70.03093300200426</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28895,13 +28895,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H21" t="n">
-        <v>2.969244272787009</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.65432337074087</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S21" t="n">
-        <v>68.7736269752976</v>
+        <v>68.77362697529684</v>
       </c>
       <c r="T21" t="n">
         <v>214.947921920714</v>
@@ -28940,10 +28940,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>143.9934172029546</v>
       </c>
       <c r="X21" t="n">
-        <v>167.3059497888916</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I23" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87638612011799</v>
+        <v>170.6485091432748</v>
       </c>
       <c r="K23" t="n">
         <v>5.370482769838617</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>73.83527824152009</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29080,10 +29080,10 @@
         <v>13.55824001833908</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.9528573271198</v>
+        <v>88.55996792937721</v>
       </c>
       <c r="R23" t="n">
-        <v>316.9227362614459</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S23" t="n">
         <v>227.2739512919082</v>
@@ -29092,19 +29092,19 @@
         <v>222.4191925616721</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1496882414672</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="V23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.646342748593</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.03932802360951</v>
+        <v>74.80750984388757</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29132,13 +29132,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H24" t="n">
-        <v>2.969244272787009</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I24" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29171,19 +29171,19 @@
         <v>214.947921920714</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872802</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413452</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>167.3059497888916</v>
+        <v>94.60174806541352</v>
       </c>
       <c r="Y24" t="n">
-        <v>100.6731197599694</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>49.16528708935496</v>
+        <v>155.792612794788</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388978542471</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R27" t="n">
         <v>134.3654897447971</v>
@@ -29408,10 +29408,10 @@
         <v>212.9205840662826</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>212.9205840662826</v>
@@ -29436,19 +29436,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>212.9205840662826</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>189.300470055227</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>212.9205840662826</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.6959906883239</v>
       </c>
       <c r="H28" t="n">
-        <v>212.9205840662826</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I28" t="n">
         <v>164.7090929584652</v>
@@ -29463,10 +29463,10 @@
         <v>31.44053041360788</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597136</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78803834926583</v>
+        <v>63.8290556494748</v>
       </c>
       <c r="O28" t="n">
         <v>36.8026535858953</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="C29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="D29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="E29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="F29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="G29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="H29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="I29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="J29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="L29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662823</v>
       </c>
       <c r="M29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="O29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="P29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="R29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="S29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="W29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="30">
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>148.2427476070101</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29606,10 +29606,10 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
         <v>51.93601990319847</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4847933493538</v>
+        <v>141.8321993420383</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U30" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="31">
@@ -29694,13 +29694,13 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
-        <v>104.809416188063</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L31" t="n">
         <v>31.44053041360788</v>
       </c>
       <c r="M31" t="n">
-        <v>212.9205840662826</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N31" t="n">
         <v>15.78803834926583</v>
@@ -29709,34 +29709,34 @@
         <v>36.8026535858953</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89996696047068</v>
+        <v>208.2904412461225</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.8163712014149</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="R31" t="n">
-        <v>212.9205840662826</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S31" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="T31" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U31" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="W31" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X31" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="32">
@@ -29782,7 +29782,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O32" t="n">
         <v>212.9205840662826</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3654897447971</v>
+        <v>123.5152607553985</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="U33" t="n">
-        <v>10.58556172753021</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X33" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29934,16 +29934,16 @@
         <v>66.47413857346798</v>
       </c>
       <c r="L34" t="n">
-        <v>70.8026718471113</v>
+        <v>82.11154739812665</v>
       </c>
       <c r="M34" t="n">
         <v>24.46691421597136</v>
       </c>
       <c r="N34" t="n">
+        <v>15.78803834926583</v>
+      </c>
+      <c r="O34" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="O34" t="n">
-        <v>36.8026535858953</v>
       </c>
       <c r="P34" t="n">
         <v>57.89996696047068</v>
@@ -29952,7 +29952,7 @@
         <v>126.8163712014149</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S34" t="n">
         <v>212.9205840662826</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="C35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="D35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="E35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="F35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="G35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="H35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="I35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="K35" t="n">
-        <v>134.2006577043187</v>
+        <v>57.97446798386842</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="O35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="P35" t="n">
-        <v>248.311210788944</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.311210788944</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="S35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T35" t="n">
-        <v>248.311210788944</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="W35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>78.70850780645202</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30086,7 +30086,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,16 +30107,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276940613373</v>
@@ -30125,10 +30125,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>133.2732714265904</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30168,22 +30168,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L37" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M37" t="n">
-        <v>108.4834242879348</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O37" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89996696047068</v>
+        <v>128.9599343748114</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8163712014149</v>
@@ -30192,19 +30192,19 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3546681313223</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T37" t="n">
         <v>223.7411167026008</v>
       </c>
       <c r="U37" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="C38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="D38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="E38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="F38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="G38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="H38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5985821377675</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="K38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,37 +30259,37 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>141.9132863554953</v>
+        <v>188.300298605867</v>
       </c>
       <c r="P38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="R38" t="n">
-        <v>248.311210788944</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="U38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="W38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30323,7 +30323,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,22 +30347,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3654897447971</v>
+        <v>47.90525726144273</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>150.537906207967</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30393,34 +30393,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>169.1103829298084</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7818614221724</v>
+        <v>236.8418288365131</v>
       </c>
       <c r="I40" t="n">
-        <v>248.311210788944</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J40" t="n">
         <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L40" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O40" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89996696047068</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8163712014149</v>
@@ -30429,19 +30429,19 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S40" t="n">
-        <v>235.3546681313223</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T40" t="n">
         <v>223.7411167026008</v>
       </c>
       <c r="U40" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.311210788944</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="C41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="D41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="E41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="F41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="G41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="H41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="I41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5985821377675</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5985821377675</v>
+        <v>214.2224066646158</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="O41" t="n">
-        <v>49.73381981944635</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>240.5985821377675</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="S41" t="n">
-        <v>240.5985821377675</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="U41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="V41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="X41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30554,13 +30554,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6804106468432</v>
+        <v>47.98904114997381</v>
       </c>
       <c r="I42" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30587,22 +30587,22 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>150.5379062079671</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,22 +30642,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L43" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M43" t="n">
-        <v>128.8238899027041</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78803834926583</v>
+        <v>98.04363459438645</v>
       </c>
       <c r="O43" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89996696047068</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q43" t="n">
         <v>126.8163712014149</v>
@@ -30666,19 +30666,19 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3546681313223</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7411167026008</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="U43" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="V43" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W43" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="C44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="D44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="E44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="F44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="G44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="H44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="I44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5985821377675</v>
+        <v>75.87638612011803</v>
       </c>
       <c r="K44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="M44" t="n">
-        <v>49.73381981944628</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>172.0494509856171</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5985821377675</v>
+        <v>13.55824001833914</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5985821377675</v>
+        <v>88.55996792937725</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5985821377675</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5985821377675</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="U44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="V44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="X44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
     </row>
     <row r="45">
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>37.27975345979448</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319849</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.141010788491283</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.947921920714</v>
@@ -30833,16 +30833,16 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V45" t="n">
-        <v>197.171697944327</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30879,25 +30879,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K46" t="n">
-        <v>170.8311142602007</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360788</v>
+        <v>31.4405304136079</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597139</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926583</v>
+        <v>120.1450140359985</v>
       </c>
       <c r="O46" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047068</v>
+        <v>57.89996696047069</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R46" t="n">
         <v>203.2148443806685</v>
@@ -30909,13 +30909,13 @@
         <v>223.7411167026008</v>
       </c>
       <c r="U46" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="V46" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W46" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H35" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I35" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J35" t="n">
-        <v>35.42501077093548</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K35" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L35" t="n">
-        <v>65.86644736722957</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M35" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N35" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O35" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02045190796901</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R35" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S35" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827101838315969</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H36" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I36" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L36" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M36" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N36" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O36" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P36" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I37" t="n">
-        <v>5.630349511514248</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R37" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S37" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U37" t="n">
         <v>0.0102122421611504</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H38" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I38" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J38" t="n">
-        <v>35.42501077093548</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K38" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L38" t="n">
-        <v>65.86644736722957</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M38" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N38" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O38" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02045190796901</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R38" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S38" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827101838315969</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H39" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I39" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L39" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M39" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N39" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O39" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P39" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I40" t="n">
-        <v>5.630349511514248</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R40" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S40" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U40" t="n">
         <v>0.0102122421611504</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H41" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I41" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J41" t="n">
-        <v>35.42501077093548</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K41" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L41" t="n">
-        <v>65.86644736722957</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M41" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N41" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O41" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02045190796901</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R41" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S41" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827101838315969</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H42" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I42" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L42" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M42" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N42" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O42" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P42" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I43" t="n">
-        <v>5.630349511514248</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R43" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S43" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U43" t="n">
         <v>0.0102122421611504</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455092</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638697</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271876</v>
       </c>
       <c r="J44" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892286</v>
       </c>
       <c r="L44" t="n">
-        <v>65.86644736722957</v>
+        <v>65.8664473672295</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175877</v>
+        <v>73.2891138017587</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448064</v>
       </c>
       <c r="O44" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043622</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796901</v>
+        <v>60.02045190796895</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983289</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815887</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150802</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315968</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964073</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053524</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243489</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954994</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895081</v>
       </c>
       <c r="M45" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457404</v>
       </c>
       <c r="N45" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471294</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809968</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078943</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362478</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350304</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586133</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.9001384957734729</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505126</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514242</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121108</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325032</v>
+        <v>21.7520758032503</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057555</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310743</v>
+        <v>28.6504453831074</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026102</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199076</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508292</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487544</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901126</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115039</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.74128743973045</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.875888132537</v>
+        <v>95.98051355650716</v>
       </c>
       <c r="M11" t="n">
         <v>83.55147896784153</v>
@@ -35422,10 +35422,10 @@
         <v>77.99187771560551</v>
       </c>
       <c r="O11" t="n">
-        <v>36.36333798423746</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P11" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>105.6516019580124</v>
@@ -35495,16 +35495,16 @@
         <v>119.7571625941459</v>
       </c>
       <c r="M12" t="n">
-        <v>81.43885522817908</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740562</v>
+        <v>118.5904960282517</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>55.28468766894301</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35568,16 +35568,16 @@
         <v>74.31020798966223</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="M13" t="n">
-        <v>114.8863721821755</v>
+        <v>4.285716825149573</v>
       </c>
       <c r="N13" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597472</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.3351837672717</v>
+        <v>77.2332019915297</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>48.875888132537</v>
       </c>
       <c r="M14" t="n">
-        <v>83.55147896784153</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N14" t="n">
         <v>77.99187771560551</v>
@@ -35662,7 +35662,7 @@
         <v>36.36333798423746</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7688720045273</v>
+        <v>122.711166374057</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>32.19361387586677</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>120.7071432297622</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O15" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35793,34 +35793,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.51557919906575</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.50247692892446</v>
       </c>
       <c r="J16" t="n">
-        <v>74.31020798966223</v>
+        <v>74.3102079896622</v>
       </c>
       <c r="K16" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>59.57040449409403</v>
+        <v>122.711166374057</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>4.552348366102632</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47.50451412819334</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="L17" t="n">
         <v>48.875888132537</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784153</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560551</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O17" t="n">
-        <v>36.36333798423746</v>
+        <v>68.87725131731567</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,10 +35908,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.3723914566848</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.22715018692091</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>39.26828800158317</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7571625941459</v>
+        <v>115.6364922483406</v>
       </c>
       <c r="M18" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>118.5904960282494</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P18" t="n">
         <v>85.55952557398587</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>18.165739210822</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>78.92094914046265</v>
       </c>
       <c r="L20" t="n">
-        <v>48.875888132537</v>
+        <v>122.711166374057</v>
       </c>
       <c r="M20" t="n">
         <v>83.55147896784153</v>
@@ -36133,7 +36133,7 @@
         <v>77.99187771560551</v>
       </c>
       <c r="O20" t="n">
-        <v>36.36333798423746</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,13 +36142,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.22715018692091</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>120.7071432297622</v>
+        <v>115.6364922483406</v>
       </c>
       <c r="N21" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O21" t="n">
-        <v>122.7111663740562</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>94.77212302315682</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.875888132537</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="M23" t="n">
         <v>83.55147896784153</v>
@@ -36376,10 +36376,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.3928893977426</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>122.7111663740562</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.49665450712554</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7571625941459</v>
+        <v>117.7531394498528</v>
       </c>
       <c r="M24" t="n">
-        <v>120.7071432297622</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740562</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O24" t="n">
-        <v>122.7111663740562</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36732,19 +36732,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.73793381557192</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>47.62432884300205</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>73.99370184783598</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.13872264411027</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.4536698503113</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>48.04101730020897</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K29" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964441</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988193</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4720630341241</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2839220505201</v>
+        <v>249.2839220505202</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889294</v>
+        <v>18.70901417889305</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>38.33527761459506</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4536698503113</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>150.3904742856518</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.10421286486778</v>
       </c>
       <c r="R31" t="n">
-        <v>9.70573968561413</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>39.36214143350342</v>
+        <v>50.67101698451877</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>197.1325457170168</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1179304803873</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.705739685614159</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.71262865117648</v>
+        <v>7.7126286511768</v>
       </c>
       <c r="J35" t="n">
-        <v>172.434824668826</v>
+        <v>172.4348246688264</v>
       </c>
       <c r="K35" t="n">
-        <v>128.8301749344801</v>
+        <v>52.60398521402983</v>
       </c>
       <c r="L35" t="n">
-        <v>48.875888132537</v>
+        <v>297.1870989214814</v>
       </c>
       <c r="M35" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N35" t="n">
-        <v>77.99187771560551</v>
+        <v>326.3030885045499</v>
       </c>
       <c r="O35" t="n">
-        <v>284.6745487731815</v>
+        <v>284.6745487731818</v>
       </c>
       <c r="P35" t="n">
-        <v>234.7529707706049</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.7512428595668</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155435</v>
+        <v>54.09964090155468</v>
       </c>
       <c r="S35" t="n">
-        <v>21.03725949703582</v>
+        <v>21.03725949703614</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727193</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L36" t="n">
         <v>119.7571625941459</v>
@@ -37400,7 +37400,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P36" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>84.01651007196341</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>71.05996741434073</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.95654265762206</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.7126286511768</v>
       </c>
       <c r="J38" t="n">
-        <v>172.434824668826</v>
+        <v>172.4348246688264</v>
       </c>
       <c r="K38" t="n">
-        <v>242.9407280191054</v>
+        <v>242.9407280191057</v>
       </c>
       <c r="L38" t="n">
-        <v>48.875888132537</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M38" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N38" t="n">
-        <v>77.99187771560551</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O38" t="n">
-        <v>178.2766243397328</v>
+        <v>224.6636365901045</v>
       </c>
       <c r="P38" t="n">
-        <v>234.7529707706049</v>
+        <v>234.7529707706053</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.7512428595668</v>
+        <v>159.7512428595671</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155435</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.03725949703582</v>
+        <v>21.03725949703614</v>
       </c>
       <c r="T38" t="n">
-        <v>25.89201822727193</v>
+        <v>25.89201822727225</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L39" t="n">
         <v>119.7571625941459</v>
@@ -37637,7 +37637,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P39" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37689,13 +37689,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4143922414845721</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>71.05996741434073</v>
       </c>
       <c r="I40" t="n">
-        <v>83.60211783047885</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>12.95654265762206</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176495</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.2280993679289</v>
+        <v>235.228099367929</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4744702703046</v>
+        <v>263.0982947971528</v>
       </c>
       <c r="M41" t="n">
-        <v>83.55147896784153</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N41" t="n">
-        <v>77.99187771560551</v>
+        <v>318.5904598533731</v>
       </c>
       <c r="O41" t="n">
-        <v>86.09715780368381</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0403421194284</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0386142083903</v>
+        <v>152.0386142083904</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037786</v>
+        <v>46.38701225037791</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585933</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17938957609545</v>
+        <v>18.17938957609547</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L42" t="n">
         <v>119.7571625941459</v>
@@ -37874,7 +37874,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P42" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.3569756867327</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.25559624512063</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.243914006445289</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.85746543516671</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7221960176495</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4744702703046</v>
+        <v>289.4744702703045</v>
       </c>
       <c r="M44" t="n">
-        <v>133.2852987872878</v>
+        <v>324.150061105609</v>
       </c>
       <c r="N44" t="n">
-        <v>77.99187771560551</v>
+        <v>250.0413287012225</v>
       </c>
       <c r="O44" t="n">
-        <v>36.36333798423746</v>
+        <v>276.9619201220049</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0403421194284</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083903</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32463084585933</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17938957609545</v>
+        <v>18.17938957609547</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158313</v>
       </c>
       <c r="L45" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M45" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N45" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O45" t="n">
-        <v>134.3890022971983</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3569756867327</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>104.3569756867326</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
